--- a/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E63AF8-A989-4165-A052-379DFB6ED478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B8A011-05A5-48FB-A43A-E641A9A02999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C21A65F7-9E14-4D30-B885-7686A471955D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F146131-93E4-44C2-B4A6-BFC4ACCC423C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="362">
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="365">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>47,45%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>56,22%</t>
   </si>
   <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>52,44%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -105,28 +105,28 @@
     <t>24,7%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>23,82%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -135,28 +135,28 @@
     <t>18,67%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -165,28 +165,28 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -198,7 +198,7 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,08%</t>
@@ -207,16 +207,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -228,901 +225,913 @@
     <t>22,29%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0870F-B355-4B5B-8155-A81163E12C93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7A4A63-ECF0-45F8-B4BB-9A0E13E019A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1883,7 +1892,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -1892,13 +1901,13 @@
         <v>6748</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1922,13 @@
         <v>745773</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>883</v>
@@ -1928,13 +1937,13 @@
         <v>982719</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1637</v>
@@ -1943,18 +1952,18 @@
         <v>1728491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1966,13 +1975,13 @@
         <v>460901</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>475</v>
@@ -1981,13 +1990,13 @@
         <v>521895</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>904</v>
@@ -1996,13 +2005,13 @@
         <v>982796</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2026,13 @@
         <v>626880</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>619</v>
@@ -2032,13 +2041,13 @@
         <v>643540</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>1204</v>
@@ -2047,13 +2056,13 @@
         <v>1270420</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,28 +2077,28 @@
         <v>681427</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>617</v>
       </c>
       <c r="I12" s="7">
-        <v>622565</v>
+        <v>622564</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1260</v>
@@ -2098,13 +2107,13 @@
         <v>1303992</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2128,13 @@
         <v>263079</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -2134,13 +2143,13 @@
         <v>169697</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>421</v>
@@ -2149,13 +2158,13 @@
         <v>432776</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2179,13 @@
         <v>35008</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2185,13 +2194,13 @@
         <v>21109</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -2200,13 +2209,13 @@
         <v>56117</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,28 +2230,28 @@
         <v>2067295</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1900</v>
       </c>
       <c r="I15" s="7">
-        <v>1978806</v>
+        <v>1978805</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3844</v>
@@ -2251,18 +2260,18 @@
         <v>4046100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2283,13 @@
         <v>131399</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -2289,13 +2298,13 @@
         <v>131267</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -2304,13 +2313,13 @@
         <v>262666</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2334,13 @@
         <v>177952</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2340,13 +2349,13 @@
         <v>209688</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>365</v>
@@ -2355,13 +2364,13 @@
         <v>387639</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,16 +2382,16 @@
         <v>174</v>
       </c>
       <c r="D18" s="7">
-        <v>188914</v>
+        <v>188913</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>164</v>
@@ -2391,13 +2400,13 @@
         <v>166998</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
@@ -2406,13 +2415,13 @@
         <v>355911</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2436,13 @@
         <v>41112</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2442,13 +2451,13 @@
         <v>35371</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -2457,13 +2466,13 @@
         <v>76483</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2487,13 @@
         <v>4589</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2493,13 +2502,13 @@
         <v>3856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2508,13 +2517,13 @@
         <v>8445</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,16 +2535,16 @@
         <v>499</v>
       </c>
       <c r="D21" s="7">
-        <v>543966</v>
+        <v>543965</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>524</v>
@@ -2544,13 +2553,13 @@
         <v>547180</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
@@ -2559,13 +2568,13 @@
         <v>1091145</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2591,13 @@
         <v>946160</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1076</v>
@@ -2597,13 +2606,13 @@
         <v>1205654</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>1993</v>
@@ -2612,13 +2621,13 @@
         <v>2151814</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2642,13 @@
         <v>989000</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>1030</v>
@@ -2648,13 +2657,13 @@
         <v>1080857</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1962</v>
@@ -2663,13 +2672,13 @@
         <v>2069857</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2693,13 @@
         <v>1009599</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>929</v>
@@ -2699,13 +2708,13 @@
         <v>946868</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>1878</v>
@@ -2714,13 +2723,13 @@
         <v>1956467</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2744,13 @@
         <v>366752</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>246</v>
@@ -2750,13 +2759,13 @@
         <v>249536</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>601</v>
@@ -2765,13 +2774,13 @@
         <v>616288</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2795,13 @@
         <v>45522</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -2801,13 +2810,13 @@
         <v>25788</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -2816,13 +2825,13 @@
         <v>71310</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2846,13 @@
         <v>3357033</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3307</v>
@@ -2852,33 +2861,33 @@
         <v>3508704</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6865737</v>
+        <v>6865736</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C578FD8-3705-4740-ACD9-36AC94B3A3AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29B7A64-1363-48AC-BA6F-326E20101C3E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,7 +2923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3021,13 +3030,13 @@
         <v>241416</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>876</v>
@@ -3036,13 +3045,13 @@
         <v>476751</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>1229</v>
@@ -3051,13 +3060,13 @@
         <v>718166</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3081,13 @@
         <v>166205</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -3087,10 +3096,10 @@
         <v>201002</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>212</v>
@@ -3129,7 +3138,7 @@
         <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>190</v>
@@ -3138,13 +3147,13 @@
         <v>135320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>293</v>
@@ -3153,13 +3162,13 @@
         <v>228769</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3183,13 @@
         <v>33109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3189,13 +3198,13 @@
         <v>22879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -3204,13 +3213,13 @@
         <v>55988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3234,13 @@
         <v>5963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3243,10 +3252,10 @@
         <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3255,13 +3264,13 @@
         <v>5963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3285,13 @@
         <v>540142</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -3291,13 +3300,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2116</v>
@@ -3306,18 +3315,18 @@
         <v>1376094</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3329,13 +3338,13 @@
         <v>439873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>889</v>
@@ -3344,13 +3353,13 @@
         <v>653947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>1389</v>
@@ -3359,13 +3368,13 @@
         <v>1093820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3389,13 @@
         <v>814656</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>1254</v>
@@ -3395,13 +3404,13 @@
         <v>889248</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>2057</v>
@@ -3410,13 +3419,13 @@
         <v>1703904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3440,13 @@
         <v>672158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>661</v>
@@ -3446,13 +3455,13 @@
         <v>602522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>1214</v>
@@ -3461,13 +3470,13 @@
         <v>1274680</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3491,13 @@
         <v>154368</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3497,13 +3506,13 @@
         <v>87459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -3512,13 +3521,13 @@
         <v>241827</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3542,13 @@
         <v>78145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3548,13 +3557,13 @@
         <v>8849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3563,13 +3572,13 @@
         <v>86994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3593,13 @@
         <v>2159200</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2910</v>
@@ -3599,13 +3608,13 @@
         <v>2242025</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4899</v>
@@ -3614,18 +3623,18 @@
         <v>4401225</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3637,13 +3646,13 @@
         <v>189702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>337</v>
@@ -3652,13 +3661,13 @@
         <v>223307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>555</v>
@@ -3667,13 +3676,13 @@
         <v>413009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3697,13 @@
         <v>315835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>488</v>
@@ -3703,13 +3712,13 @@
         <v>340295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -3718,13 +3727,13 @@
         <v>656130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3748,13 @@
         <v>136966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
@@ -3754,13 +3763,13 @@
         <v>122527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>279</v>
@@ -3769,13 +3778,13 @@
         <v>259493</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3799,13 @@
         <v>28096</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3877,7 +3886,7 @@
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3901,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -3907,13 +3916,13 @@
         <v>711475</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1683</v>
@@ -3922,13 +3931,13 @@
         <v>1384514</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3954,13 @@
         <v>870991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>2102</v>
@@ -3960,13 +3969,13 @@
         <v>1354006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>3173</v>
@@ -3975,13 +3984,13 @@
         <v>2224996</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4005,13 @@
         <v>1296695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>2075</v>
@@ -4011,13 +4020,13 @@
         <v>1430546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>3386</v>
@@ -4026,13 +4035,13 @@
         <v>2727241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4056,13 @@
         <v>902573</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="H24" s="7">
         <v>1005</v>
@@ -4080,10 +4089,10 @@
         <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4107,13 @@
         <v>215573</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -4113,13 +4122,13 @@
         <v>134236</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -4128,13 +4137,13 @@
         <v>349809</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4158,13 @@
         <v>86549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -4164,13 +4173,13 @@
         <v>10296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -4179,13 +4188,13 @@
         <v>96845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4209,13 @@
         <v>3372381</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5339</v>
@@ -4215,13 +4224,13 @@
         <v>3789453</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8698</v>
@@ -4230,18 +4239,18 @@
         <v>7161834</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B8A011-05A5-48FB-A43A-E641A9A02999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41407A21-BCC8-4A55-BFD9-79849A2AF6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F146131-93E4-44C2-B4A6-BFC4ACCC423C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43BA1333-94ED-4AF5-B9BE-DB67A4E0C39D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="365">
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="359">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>47,45%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
   </si>
   <si>
     <t>56,22%</t>
   </si>
   <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
   </si>
   <si>
     <t>52,44%</t>
   </si>
   <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -105,738 +105,732 @@
     <t>24,7%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>20,29%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
     <t>30,9%</t>
   </si>
   <si>
@@ -870,9 +864,6 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
     <t>13,08%</t>
   </si>
   <si>
@@ -957,9 +948,6 @@
     <t>19,84%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
     <t>16,54%</t>
   </si>
   <si>
@@ -984,9 +972,6 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
@@ -1069,9 +1054,6 @@
   </si>
   <si>
     <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
   </si>
   <si>
     <t>24,39%</t>
@@ -1543,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7A4A63-ECF0-45F8-B4BB-9A0E13E019A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD07250-E7C7-424B-A2C9-446490FE4236}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1892,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -1901,13 +1883,13 @@
         <v>6748</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1904,13 @@
         <v>745773</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>883</v>
@@ -1937,13 +1919,13 @@
         <v>982719</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1637</v>
@@ -1952,18 +1934,18 @@
         <v>1728491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1975,13 +1957,13 @@
         <v>460901</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>475</v>
@@ -1990,13 +1972,13 @@
         <v>521895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>904</v>
@@ -2005,13 +1987,13 @@
         <v>982796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2008,13 @@
         <v>626880</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>619</v>
@@ -2041,13 +2023,13 @@
         <v>643540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>1204</v>
@@ -2056,13 +2038,13 @@
         <v>1270420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2161,13 @@
         <v>35008</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2194,13 +2176,13 @@
         <v>21109</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -2209,13 +2191,13 @@
         <v>56117</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2212,13 @@
         <v>2067295</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1900</v>
@@ -2245,13 +2227,13 @@
         <v>1978805</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3844</v>
@@ -2260,18 +2242,18 @@
         <v>4046100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2265,13 @@
         <v>131399</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -2298,13 +2280,13 @@
         <v>131267</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -2313,13 +2295,13 @@
         <v>262666</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2316,13 @@
         <v>177952</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2349,13 +2331,13 @@
         <v>209688</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>365</v>
@@ -2364,13 +2346,13 @@
         <v>387639</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2367,13 @@
         <v>188913</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>164</v>
@@ -2400,13 +2382,13 @@
         <v>166998</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
@@ -2415,13 +2397,13 @@
         <v>355911</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2418,13 @@
         <v>41112</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2451,13 +2433,13 @@
         <v>35371</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -2466,13 +2448,13 @@
         <v>76483</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2520,13 @@
         <v>543965</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>524</v>
@@ -2553,13 +2535,13 @@
         <v>547180</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
@@ -2568,13 +2550,13 @@
         <v>1091145</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2675,13 @@
         <v>1009599</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>929</v>
@@ -2708,13 +2690,13 @@
         <v>946868</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1878</v>
@@ -2723,13 +2705,13 @@
         <v>1956467</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2726,13 @@
         <v>366752</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>246</v>
@@ -2759,13 +2741,13 @@
         <v>249536</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>601</v>
@@ -2774,13 +2756,13 @@
         <v>616288</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2777,13 @@
         <v>45522</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -2810,13 +2792,13 @@
         <v>25788</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -2825,13 +2807,13 @@
         <v>71310</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2828,13 @@
         <v>3357033</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3307</v>
@@ -2861,33 +2843,33 @@
         <v>3508704</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6865736</v>
+        <v>6865737</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29B7A64-1363-48AC-BA6F-326E20101C3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2F1838-72F6-4F4F-AFC7-84F7BAEE44E0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2923,7 +2905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3030,13 +3012,13 @@
         <v>241416</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>876</v>
@@ -3045,13 +3027,13 @@
         <v>476751</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>1229</v>
@@ -3060,13 +3042,13 @@
         <v>718166</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3063,13 @@
         <v>166205</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -3096,13 +3078,13 @@
         <v>201002</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -3111,13 +3093,13 @@
         <v>367207</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3114,13 @@
         <v>93449</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>190</v>
@@ -3147,13 +3129,13 @@
         <v>135320</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>293</v>
@@ -3162,13 +3144,13 @@
         <v>228769</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3165,13 @@
         <v>33109</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3198,13 +3180,13 @@
         <v>22879</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -3213,13 +3195,13 @@
         <v>55988</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3216,13 @@
         <v>5963</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3252,10 +3234,10 @@
         <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3264,13 +3246,13 @@
         <v>5963</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3267,13 @@
         <v>540142</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -3300,13 +3282,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2116</v>
@@ -3315,18 +3297,18 @@
         <v>1376094</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3338,13 +3320,13 @@
         <v>439873</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>889</v>
@@ -3353,13 +3335,13 @@
         <v>653947</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>1389</v>
@@ -3368,13 +3350,13 @@
         <v>1093820</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3371,13 @@
         <v>814656</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>1254</v>
@@ -3404,13 +3386,13 @@
         <v>889248</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>2057</v>
@@ -3419,13 +3401,13 @@
         <v>1703904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3422,13 @@
         <v>672158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>661</v>
@@ -3455,13 +3437,13 @@
         <v>602522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>1214</v>
@@ -3470,13 +3452,13 @@
         <v>1274680</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3473,13 @@
         <v>154368</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3506,13 +3488,13 @@
         <v>87459</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -3521,13 +3503,13 @@
         <v>241827</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3524,13 @@
         <v>78145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3557,13 +3539,13 @@
         <v>8849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3572,13 +3554,13 @@
         <v>86994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3575,13 @@
         <v>2159200</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2910</v>
@@ -3608,13 +3590,13 @@
         <v>2242025</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4899</v>
@@ -3623,18 +3605,18 @@
         <v>4401225</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3646,13 +3628,13 @@
         <v>189702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>337</v>
@@ -3661,13 +3643,13 @@
         <v>223307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>555</v>
@@ -3676,13 +3658,13 @@
         <v>413009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3679,13 @@
         <v>315835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>488</v>
@@ -3712,13 +3694,13 @@
         <v>340295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -3727,13 +3709,13 @@
         <v>656130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3730,13 @@
         <v>136966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
@@ -3763,13 +3745,13 @@
         <v>122527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>279</v>
@@ -3778,13 +3760,13 @@
         <v>259493</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3781,13 @@
         <v>28096</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3814,13 +3796,13 @@
         <v>23898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -3829,13 +3811,13 @@
         <v>51993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3832,13 @@
         <v>2441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3865,13 +3847,13 @@
         <v>1447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3880,13 +3862,13 @@
         <v>3888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3883,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -3916,13 +3898,13 @@
         <v>711475</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1683</v>
@@ -3931,13 +3913,13 @@
         <v>1384514</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3936,13 @@
         <v>870991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>2102</v>
@@ -3969,13 +3951,13 @@
         <v>1354006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>3173</v>
@@ -3984,13 +3966,13 @@
         <v>2224996</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3987,13 @@
         <v>1296695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>2075</v>
@@ -4020,13 +4002,13 @@
         <v>1430546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>3386</v>
@@ -4035,13 +4017,13 @@
         <v>2727241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4038,13 @@
         <v>902573</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H24" s="7">
         <v>1005</v>
@@ -4071,13 +4053,13 @@
         <v>860370</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>1786</v>
@@ -4086,13 +4068,13 @@
         <v>1762943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4089,13 @@
         <v>215573</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -4122,13 +4104,13 @@
         <v>134236</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -4137,13 +4119,13 @@
         <v>349809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4140,13 @@
         <v>86549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -4173,13 +4155,13 @@
         <v>10296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -4188,13 +4170,13 @@
         <v>96845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4191,13 @@
         <v>3372381</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5339</v>
@@ -4224,13 +4206,13 @@
         <v>3789453</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8698</v>
@@ -4239,18 +4221,18 @@
         <v>7161834</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41407A21-BCC8-4A55-BFD9-79849A2AF6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{355E1075-FBA1-435F-A22F-866136B01BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43BA1333-94ED-4AF5-B9BE-DB67A4E0C39D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{184D72C2-44FF-47BD-8E53-C4D4283652DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="362">
   <si>
     <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,16 +75,16 @@
     <t>47,45%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
   </si>
   <si>
     <t>56,22%</t>
   </si>
   <si>
-    <t>52,7%</t>
+    <t>52,82%</t>
   </si>
   <si>
     <t>59,58%</t>
@@ -93,10 +93,10 @@
     <t>52,44%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -105,16 +105,16 @@
     <t>24,7%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>20,46%</t>
+    <t>20,3%</t>
   </si>
   <si>
     <t>26,15%</t>
@@ -126,7 +126,7 @@
     <t>21,8%</t>
   </si>
   <si>
-    <t>25,82%</t>
+    <t>26,0%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -135,985 +135,994 @@
     <t>18,67%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>7,59%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD07250-E7C7-424B-A2C9-446490FE4236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4869E09-904D-468A-A1EF-0DAB76C0AF60}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2059,28 +2068,28 @@
         <v>681427</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>617</v>
       </c>
       <c r="I12" s="7">
-        <v>622564</v>
+        <v>622565</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1260</v>
@@ -2089,13 +2098,13 @@
         <v>1303992</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2119,13 @@
         <v>263079</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -2125,13 +2134,13 @@
         <v>169697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>421</v>
@@ -2140,13 +2149,13 @@
         <v>432776</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2170,13 @@
         <v>35008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2176,13 +2185,13 @@
         <v>21109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -2191,13 +2200,13 @@
         <v>56117</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2233,7 @@
         <v>1900</v>
       </c>
       <c r="I15" s="7">
-        <v>1978805</v>
+        <v>1978806</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2253,7 +2262,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2265,13 +2274,13 @@
         <v>131399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -2280,13 +2289,13 @@
         <v>131267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -2295,13 +2304,13 @@
         <v>262666</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2325,13 @@
         <v>177952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2331,13 +2340,13 @@
         <v>209688</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>365</v>
@@ -2346,13 +2355,13 @@
         <v>387639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,16 +2373,16 @@
         <v>174</v>
       </c>
       <c r="D18" s="7">
-        <v>188913</v>
+        <v>188914</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>164</v>
@@ -2382,13 +2391,13 @@
         <v>166998</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>338</v>
@@ -2397,13 +2406,13 @@
         <v>355911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2427,13 @@
         <v>41112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2433,13 +2442,13 @@
         <v>35371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -2448,13 +2457,13 @@
         <v>76483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2478,13 @@
         <v>4589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2484,13 +2493,13 @@
         <v>3856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2499,13 +2508,13 @@
         <v>8445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,7 +2526,7 @@
         <v>499</v>
       </c>
       <c r="D21" s="7">
-        <v>543965</v>
+        <v>543966</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2573,13 +2582,13 @@
         <v>946160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1076</v>
@@ -2588,13 +2597,13 @@
         <v>1205654</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>1993</v>
@@ -2603,13 +2612,13 @@
         <v>2151814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2633,13 @@
         <v>989000</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>1030</v>
@@ -2639,13 +2648,13 @@
         <v>1080857</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1962</v>
@@ -2654,13 +2663,13 @@
         <v>2069857</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2684,13 @@
         <v>1009599</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>929</v>
@@ -2690,13 +2699,13 @@
         <v>946868</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>1878</v>
@@ -2705,13 +2714,13 @@
         <v>1956467</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2735,13 @@
         <v>366752</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>246</v>
@@ -2741,13 +2750,13 @@
         <v>249536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>601</v>
@@ -2756,13 +2765,13 @@
         <v>616288</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2786,13 @@
         <v>45522</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -2792,13 +2801,13 @@
         <v>25788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -2807,13 +2816,13 @@
         <v>71310</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,7 +2878,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2F1838-72F6-4F4F-AFC7-84F7BAEE44E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA6B4A4-D368-42C2-9B4B-C5DA44C17DB0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,7 +2914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3012,13 +3021,13 @@
         <v>241416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>876</v>
@@ -3027,13 +3036,13 @@
         <v>476751</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>1229</v>
@@ -3042,13 +3051,13 @@
         <v>718166</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3072,13 @@
         <v>166205</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -3078,13 +3087,13 @@
         <v>201002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>527</v>
@@ -3093,13 +3102,13 @@
         <v>367207</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3123,13 @@
         <v>93449</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="H6" s="7">
         <v>190</v>
@@ -3129,13 +3138,13 @@
         <v>135320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>293</v>
@@ -3144,13 +3153,13 @@
         <v>228769</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3174,13 @@
         <v>33109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3180,10 +3189,10 @@
         <v>22879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>228</v>
@@ -3404,10 +3413,10 @@
         <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3431,13 @@
         <v>672158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>661</v>
@@ -3437,13 +3446,13 @@
         <v>602522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>1214</v>
@@ -3452,13 +3461,13 @@
         <v>1274680</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3482,13 @@
         <v>154368</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3488,13 +3497,13 @@
         <v>87459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -3503,13 +3512,13 @@
         <v>241827</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,10 +3536,10 @@
         <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3542,10 +3551,10 @@
         <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3557,10 +3566,10 @@
         <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,7 +3625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3637,13 @@
         <v>189702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>337</v>
@@ -3643,13 +3652,13 @@
         <v>223307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>555</v>
@@ -3658,13 +3667,13 @@
         <v>413009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3688,13 @@
         <v>315835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>488</v>
@@ -3694,13 +3703,13 @@
         <v>340295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -3709,13 +3718,13 @@
         <v>656130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3739,13 @@
         <v>136966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
@@ -3745,13 +3754,13 @@
         <v>122527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>279</v>
@@ -3760,13 +3769,13 @@
         <v>259493</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3790,13 @@
         <v>28096</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3796,13 +3805,13 @@
         <v>23898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -3811,13 +3820,13 @@
         <v>51993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3841,13 @@
         <v>2441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3847,13 +3856,13 @@
         <v>1447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3862,13 +3871,13 @@
         <v>3888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3945,13 @@
         <v>870991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>2102</v>
@@ -3951,13 +3960,13 @@
         <v>1354006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>3173</v>
@@ -3966,13 +3975,13 @@
         <v>2224996</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3996,13 @@
         <v>1296695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
         <v>2075</v>
@@ -4002,13 +4011,13 @@
         <v>1430546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
         <v>3386</v>
@@ -4017,13 +4026,13 @@
         <v>2727241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4047,13 @@
         <v>902573</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>1005</v>
@@ -4053,13 +4062,13 @@
         <v>860370</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>1786</v>
@@ -4068,13 +4077,13 @@
         <v>1762943</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4098,13 @@
         <v>215573</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -4104,13 +4113,13 @@
         <v>134236</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -4119,13 +4128,13 @@
         <v>349809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4149,13 @@
         <v>86549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>239</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -4155,13 +4164,13 @@
         <v>10296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -4170,13 +4179,13 @@
         <v>96845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4241,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{355E1075-FBA1-435F-A22F-866136B01BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96F66755-F2A9-4593-945C-D0A1CDD35EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{184D72C2-44FF-47BD-8E53-C4D4283652DF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{19F6A704-1943-427A-829D-F46A6EFE88E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -636,493 +636,493 @@
     <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4869E09-904D-468A-A1EF-0DAB76C0AF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA76DF10-995E-4BEB-BDDE-172EADFB40D0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2080,7 +2080,7 @@
         <v>617</v>
       </c>
       <c r="I12" s="7">
-        <v>622565</v>
+        <v>622564</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -2233,7 +2233,7 @@
         <v>1900</v>
       </c>
       <c r="I15" s="7">
-        <v>1978806</v>
+        <v>1978805</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2373,7 +2373,7 @@
         <v>174</v>
       </c>
       <c r="D18" s="7">
-        <v>188914</v>
+        <v>188913</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>126</v>
@@ -2526,7 +2526,7 @@
         <v>499</v>
       </c>
       <c r="D21" s="7">
-        <v>543966</v>
+        <v>543965</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2897,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA6B4A4-D368-42C2-9B4B-C5DA44C17DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9721D277-AA46-4F8E-BA85-FA97AB5260BA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3018,7 +3018,7 @@
         <v>353</v>
       </c>
       <c r="D4" s="7">
-        <v>241416</v>
+        <v>230813</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>199</v>
@@ -3033,7 +3033,7 @@
         <v>876</v>
       </c>
       <c r="I4" s="7">
-        <v>476751</v>
+        <v>434863</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>202</v>
@@ -3048,7 +3048,7 @@
         <v>1229</v>
       </c>
       <c r="N4" s="7">
-        <v>718166</v>
+        <v>665676</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>205</v>
@@ -3069,7 +3069,7 @@
         <v>194</v>
       </c>
       <c r="D5" s="7">
-        <v>166205</v>
+        <v>160129</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>208</v>
@@ -3084,13 +3084,13 @@
         <v>333</v>
       </c>
       <c r="I5" s="7">
-        <v>201002</v>
+        <v>182509</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>212</v>
@@ -3099,7 +3099,7 @@
         <v>527</v>
       </c>
       <c r="N5" s="7">
-        <v>367207</v>
+        <v>342638</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>213</v>
@@ -3120,7 +3120,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="7">
-        <v>93449</v>
+        <v>86634</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>216</v>
@@ -3129,37 +3129,37 @@
         <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>190</v>
       </c>
       <c r="I6" s="7">
-        <v>135320</v>
+        <v>118866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>293</v>
       </c>
       <c r="N6" s="7">
-        <v>228769</v>
+        <v>205501</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,46 +3171,46 @@
         <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>33109</v>
+        <v>30147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>22879</v>
+        <v>19269</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>55988</v>
+        <v>49416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,16 +3222,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>5963</v>
+        <v>5784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3243,25 +3243,25 @@
         <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>5963</v>
+        <v>5784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3273,7 @@
         <v>689</v>
       </c>
       <c r="D9" s="7">
-        <v>540142</v>
+        <v>513507</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -3288,7 +3288,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -3303,7 +3303,7 @@
         <v>2116</v>
       </c>
       <c r="N9" s="7">
-        <v>1376094</v>
+        <v>1269015</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3326,46 +3326,46 @@
         <v>500</v>
       </c>
       <c r="D10" s="7">
-        <v>439873</v>
+        <v>419356</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>889</v>
       </c>
       <c r="I10" s="7">
-        <v>653947</v>
+        <v>709396</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>1389</v>
       </c>
       <c r="N10" s="7">
-        <v>1093820</v>
+        <v>1128752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,46 +3377,46 @@
         <v>803</v>
       </c>
       <c r="D11" s="7">
-        <v>814656</v>
+        <v>802226</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>1254</v>
       </c>
       <c r="I11" s="7">
-        <v>889248</v>
+        <v>817497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>2057</v>
       </c>
       <c r="N11" s="7">
-        <v>1703904</v>
+        <v>1619723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,46 +3428,46 @@
         <v>553</v>
       </c>
       <c r="D12" s="7">
-        <v>672158</v>
+        <v>653418</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="H12" s="7">
         <v>661</v>
       </c>
       <c r="I12" s="7">
-        <v>602522</v>
+        <v>621049</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>1214</v>
       </c>
       <c r="N12" s="7">
-        <v>1274680</v>
+        <v>1274467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,46 +3479,46 @@
         <v>113</v>
       </c>
       <c r="D13" s="7">
-        <v>154368</v>
+        <v>143338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>87459</v>
+        <v>75201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
       </c>
       <c r="N13" s="7">
-        <v>241827</v>
+        <v>218539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,46 +3530,46 @@
         <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>78145</v>
+        <v>269274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>8849</v>
+        <v>7681</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
       </c>
       <c r="N14" s="7">
-        <v>86994</v>
+        <v>276956</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3581,7 @@
         <v>1989</v>
       </c>
       <c r="D15" s="7">
-        <v>2159200</v>
+        <v>2287612</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3596,7 +3596,7 @@
         <v>2910</v>
       </c>
       <c r="I15" s="7">
-        <v>2242025</v>
+        <v>2230824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -3611,7 +3611,7 @@
         <v>4899</v>
       </c>
       <c r="N15" s="7">
-        <v>4401225</v>
+        <v>4518437</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -3634,46 +3634,46 @@
         <v>218</v>
       </c>
       <c r="D16" s="7">
-        <v>189702</v>
+        <v>181431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>337</v>
       </c>
       <c r="I16" s="7">
-        <v>223307</v>
+        <v>205717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>555</v>
       </c>
       <c r="N16" s="7">
-        <v>413009</v>
+        <v>387149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,46 +3685,46 @@
         <v>314</v>
       </c>
       <c r="D17" s="7">
-        <v>315835</v>
+        <v>308331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>488</v>
       </c>
       <c r="I17" s="7">
-        <v>340295</v>
+        <v>317151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
       </c>
       <c r="N17" s="7">
-        <v>656130</v>
+        <v>625483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,46 +3736,46 @@
         <v>125</v>
       </c>
       <c r="D18" s="7">
-        <v>136966</v>
+        <v>128846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>154</v>
       </c>
       <c r="I18" s="7">
-        <v>122527</v>
+        <v>111771</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>279</v>
       </c>
       <c r="N18" s="7">
-        <v>259493</v>
+        <v>240617</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,25 +3787,25 @@
         <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>28096</v>
+        <v>25682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>23898</v>
+        <v>22188</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>311</v>
@@ -3817,7 +3817,7 @@
         <v>42</v>
       </c>
       <c r="N19" s="7">
-        <v>51993</v>
+        <v>47870</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>313</v>
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>2441</v>
+        <v>2333</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>316</v>
@@ -3853,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1447</v>
+        <v>1394</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>319</v>
@@ -3862,22 +3862,22 @@
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>3888</v>
+        <v>3727</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,7 +3889,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -3904,7 +3904,7 @@
         <v>1002</v>
       </c>
       <c r="I21" s="7">
-        <v>711475</v>
+        <v>658221</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3919,7 +3919,7 @@
         <v>1683</v>
       </c>
       <c r="N21" s="7">
-        <v>1384514</v>
+        <v>1304845</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3942,7 +3942,7 @@
         <v>1071</v>
       </c>
       <c r="D22" s="7">
-        <v>870991</v>
+        <v>831600</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>322</v>
@@ -3957,7 +3957,7 @@
         <v>2102</v>
       </c>
       <c r="I22" s="7">
-        <v>1354006</v>
+        <v>1349977</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>325</v>
@@ -3972,7 +3972,7 @@
         <v>3173</v>
       </c>
       <c r="N22" s="7">
-        <v>2224996</v>
+        <v>2181577</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>328</v>
@@ -3993,7 +3993,7 @@
         <v>1311</v>
       </c>
       <c r="D23" s="7">
-        <v>1296695</v>
+        <v>1270686</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>331</v>
@@ -4008,31 +4008,31 @@
         <v>2075</v>
       </c>
       <c r="I23" s="7">
-        <v>1430546</v>
+        <v>1317157</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M23" s="7">
         <v>3386</v>
       </c>
       <c r="N23" s="7">
-        <v>2727241</v>
+        <v>2587843</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,46 +4044,46 @@
         <v>781</v>
       </c>
       <c r="D24" s="7">
-        <v>902573</v>
+        <v>868898</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>1005</v>
       </c>
       <c r="I24" s="7">
-        <v>860370</v>
+        <v>851686</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>1786</v>
       </c>
       <c r="N24" s="7">
-        <v>1762943</v>
+        <v>1720584</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,46 +4095,46 @@
         <v>168</v>
       </c>
       <c r="D25" s="7">
-        <v>215573</v>
+        <v>199167</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
       </c>
       <c r="I25" s="7">
-        <v>134236</v>
+        <v>116658</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
       </c>
       <c r="N25" s="7">
-        <v>349809</v>
+        <v>315825</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,37 +4146,37 @@
         <v>28</v>
       </c>
       <c r="D26" s="7">
-        <v>86549</v>
+        <v>277391</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>10296</v>
+        <v>9075</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>239</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
       </c>
       <c r="N26" s="7">
-        <v>96845</v>
+        <v>286466</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>359</v>
@@ -4197,7 +4197,7 @@
         <v>3359</v>
       </c>
       <c r="D27" s="7">
-        <v>3372381</v>
+        <v>3447743</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -4212,7 +4212,7 @@
         <v>5339</v>
       </c>
       <c r="I27" s="7">
-        <v>3789453</v>
+        <v>3644553</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4227,7 +4227,7 @@
         <v>8698</v>
       </c>
       <c r="N27" s="7">
-        <v>7161834</v>
+        <v>7092296</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
